--- a/OpenWeatherMap.Org.xlsx
+++ b/OpenWeatherMap.Org.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\secutix2\repos\automation-selenium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E75E1F-BF53-4100-BA49-AABFC1849390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Testing Approaches" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name=" Design test cases" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Defects" sheetId="3" r:id="rId6"/>
+    <sheet name="Testing Approaches" sheetId="1" r:id="rId1"/>
+    <sheet name=" Design test cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Defects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Testing Approach</t>
   </si>
@@ -150,26 +159,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t xml:space="preserve">"Search" button should be enabled when having no text input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">"Search" button should be enabled when having no text input
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Steps to reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Steps to reproduced:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. Open browser and navigate to Open Weather URL: https://openweathermap.org/
 2. Click on Search button
@@ -177,56 +184,356 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Observed Result:
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- Nothing happens
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Expected Result:
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>- Button "Search" should be disabled</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is no intruction for search text box on Find page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open browser and go to Open Weather map
+2. Submit a blank search in search text box on header
+3. Observe Search textbox on Find page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Observed Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- There is no instruction displayed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- There should be a grey text displayed to guide user input information to search</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3. There should be a notification to ask user allow to access his location
+</t>
+  </si>
+  <si>
+    <t>1. Open browser (private browser or clear cached browser)
+2. Enter Open Weather Map URL (https://openweathermap.org/)
+3. Observe the notification of browser</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Verify that the weather forecast is correctly shown for the search city</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Enter Open Weather Map URL (https://openweathermap.org/)
+3. Enter a city to search (ex: Ho Chi Minh)
+4. Submit search
+5. In Find page, select Ho chi minh city in search result
+6. Observe the weather forecast details</t>
+  </si>
+  <si>
+    <t>Verify that the temperature should be switchable between Fahrenheit and Celsius</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Enter Open Weather Map URL (https://openweathermap.org/)
+3. Enter a city to search (ex: Ha noi)
+4. Submit search
+5. In Find page, select "Ha noi" in search result
+6. Switch the temperature between Fahrenheit and Celsius
+7. Observe the temperature</t>
+  </si>
+  <si>
+    <t>Verify that there is a message displayed when entering an invalid city name</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Enter Open Weather Map URL (https://openweathermap.org/)
+3. Enter a city to search (ex: viet nam)
+4. Submit search
+5. Observe result in Find page</t>
+  </si>
+  <si>
+    <t>5. There should be a message "No city found" displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Message not found is not meaning full
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open browser and go to Open Weather map
+2. Submit a search with invalid city (ex: Viet nam)
+3. Observe message on Find page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Observed Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- Text "Not found" is displayed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- There should be a meaning full text displayed to notify that there is no city found. 
+(Ex: There is no city found)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is nothings happened when entering less than 2 characters into search textbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open browser and go to Open Weather map
+2. Submit a search with less than 2 characters (ex: it)
+3. In find page, search with 1 character
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Observed Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+2. No results or message displayed in Find page.
+3. Nothings happened.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- There should be an error message displayed to notify or instruct user to enter more than 2 characters to search</t>
+    </r>
+  </si>
+  <si>
+    <t>Bugs Description</t>
+  </si>
+  <si>
+    <t>6. The forecast should be displayed correctly with information of city name, country, geography location, current time, etc. (same as user requirements)</t>
+  </si>
+  <si>
+    <t>6. The temperature should be able to switch between 2 degress without any errors
+7. The temperature value and unit should be updated correctly with the selected degree
+- The temperature graph should be displayed correctly and smoothly</t>
+  </si>
+  <si>
+    <t>Verify that the user is asked to access his location at the first time navigating to Open Weather Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,7 +541,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -249,21 +556,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="5">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -275,6 +574,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -283,75 +586,128 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -541,103 +897,108 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.29"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="4" max="4" width="46.0"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -646,122 +1007,233 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.86"/>
-    <col customWidth="1" min="3" max="3" width="59.43"/>
-    <col customWidth="1" min="4" max="4" width="61.71"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="78.57"/>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4"/>
+    <col min="4" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>